--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -646,36 +646,96 @@
           <t>Den Haag</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>24</v>
+      </c>
+      <c r="X2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -708,36 +768,96 @@
           <t>Dordrecht</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>19</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -771,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -792,13 +912,13 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
         <v>3.25</v>
@@ -810,7 +930,7 @@
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
         <v>26</v>
@@ -834,25 +954,25 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -893,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -914,49 +1034,49 @@
         <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
         <v>21</v>
-      </c>
-      <c r="X5" t="n">
-        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -965,22 +1085,22 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1015,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1036,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1048,22 +1168,22 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1072,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1084,22 +1204,22 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1136,36 +1256,96 @@
           <t>Ludogorets</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>12</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>29</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1198,36 +1378,96 @@
           <t>Spartak Varna</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K8" t="n">
+        <v>13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>10</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1386,22 +1626,22 @@
         <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>3.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K10" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M10" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="N10" t="n">
         <v>2.88</v>
@@ -1410,65 +1650,65 @@
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
@@ -1503,10 +1743,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I11" t="n">
         <v>3.55</v>
@@ -1538,10 +1778,10 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U11" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V11" t="n">
         <v>9.5</v>
@@ -1569,7 +1809,7 @@
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AF11" t="n">
         <v>18</v>
@@ -1865,13 +2105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="I15" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>1.14</v>
@@ -1895,37 +2135,37 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
         <v>2.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="U15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="X15" t="n">
         <v>50</v>
       </c>
       <c r="Y15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z15" t="n">
         <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
@@ -1935,16 +2175,16 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AF15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
         <v>22</v>
@@ -2114,70 +2354,70 @@
         <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="R17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X17" t="n">
         <v>29</v>
       </c>
       <c r="Y17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA17" t="n">
         <v>5.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD17" t="n">
         <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
@@ -2189,10 +2429,10 @@
         <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2227,19 +2467,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I18" t="n">
         <v>3.3</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2248,10 +2488,10 @@
         <v>3.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="O18" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2272,22 +2512,22 @@
         <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2299,7 +2539,7 @@
         <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2411,27 +2651,27 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N20" t="n">
         <v>1.62</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2448,25 +2688,25 @@
         <v>19</v>
       </c>
       <c r="V20" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
         <v>45</v>
@@ -2478,19 +2718,19 @@
         <v>9.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG20" t="n">
         <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -2525,94 +2765,94 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.05</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.92</v>
-      </c>
       <c r="S21" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" t="n">
         <v>6.5</v>
       </c>
-      <c r="U21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="V21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y21" t="n">
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>451</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="n">
         <v>51</v>
       </c>
-      <c r="AD21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -2647,43 +2887,43 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.82</v>
-      </c>
       <c r="I22" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.75</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
         <v>9</v>
@@ -2692,22 +2932,22 @@
         <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W22" t="n">
+        <v>29</v>
+      </c>
+      <c r="X22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="n">
         <v>34</v>
       </c>
-      <c r="X22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>41</v>
-      </c>
       <c r="Z22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB22" t="n">
         <v>15</v>
@@ -2716,25 +2956,25 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2769,94 +3009,94 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K23" t="n">
+        <v>9</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.62</v>
-      </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
       </c>
       <c r="Z23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA23" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2891,46 +3131,46 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="O24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S24" t="n">
         <v>2.05</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U24" t="n">
         <v>12</v>
@@ -2939,19 +3179,19 @@
         <v>9.5</v>
       </c>
       <c r="W24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
@@ -2960,13 +3200,13 @@
         <v>41</v>
       </c>
       <c r="AD24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>12</v>
@@ -2978,7 +3218,7 @@
         <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3013,94 +3253,94 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K25" t="n">
+        <v>10</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI25" t="n">
         <v>15</v>
       </c>
-      <c r="AC25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -3135,13 +3375,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>1.05</v>
@@ -3156,16 +3396,16 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R26" t="n">
         <v>1.75</v>
@@ -3183,7 +3423,7 @@
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3207,19 +3447,19 @@
         <v>201</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
         <v>41</v>
@@ -3257,94 +3497,94 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.33</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Q27" t="n">
         <v>3.25</v>
       </c>
-      <c r="N27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.63</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
         <v>11</v>
       </c>
-      <c r="V27" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W27" t="n">
+        <v>34</v>
+      </c>
+      <c r="X27" t="n">
         <v>23</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
       </c>
       <c r="Z27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG27" t="n">
         <v>9</v>
       </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
         <v>15</v>
       </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3379,94 +3619,94 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="O28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S28" t="n">
         <v>2</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U28" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="V28" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>21</v>
       </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>41</v>
-      </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3501,13 +3741,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3522,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P29" t="n">
         <v>1.33</v>
@@ -3534,61 +3774,61 @@
         <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
       </c>
       <c r="AD29" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG29" t="n">
         <v>19</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AH29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI29" t="n">
         <v>41</v>
       </c>
-      <c r="AG29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>51</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -3623,94 +3863,94 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.4</v>
       </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
         <v>2.75</v>
       </c>
-      <c r="N30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="U30" t="n">
+        <v>17</v>
+      </c>
+      <c r="V30" t="n">
         <v>12</v>
       </c>
-      <c r="V30" t="n">
-        <v>11</v>
-      </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>7</v>
       </c>
-      <c r="AA30" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>29</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="31">
@@ -3875,40 +4115,40 @@
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
       </c>
       <c r="K33" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L33" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M33" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="N33" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P33" t="n">
         <v>1.57</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S33" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U33" t="n">
         <v>9.25</v>
@@ -3926,37 +4166,37 @@
         <v>40</v>
       </c>
       <c r="Z33" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA33" t="n">
         <v>6.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD33" t="n">
         <v>1250</v>
       </c>
       <c r="AE33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
         <v>65</v>
       </c>
       <c r="AI33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -3991,94 +4231,94 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.95</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.9</v>
-      </c>
       <c r="S34" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="U34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V34" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="W34" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="X34" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y34" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
         <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG34" t="n">
         <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AI34" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -4235,13 +4475,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4256,10 +4496,10 @@
         <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4274,13 +4514,13 @@
         <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
@@ -4289,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
         <v>10</v>
@@ -4313,16 +4553,16 @@
         <v>19</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -4356,36 +4596,96 @@
           <t>St. Gallen</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W37" t="n">
+        <v>30</v>
+      </c>
+      <c r="X37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4418,36 +4718,96 @@
           <t>Winterthur</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -650,22 +650,22 @@
         <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>10.25</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.5</v>
@@ -674,67 +674,67 @@
         <v>2.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.25</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L3" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="M3" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="O3" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="P3" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="R3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
+        <v>17</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>19</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>17</v>
       </c>
       <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB3" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>12</v>
-      </c>
       <c r="AC3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD3" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -933,10 +933,10 @@
         <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W4" t="n">
         <v>51</v>
@@ -954,7 +954,7 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1055,7 +1055,7 @@
         <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1168,13 +1168,13 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
         <v>8.5</v>
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1204,7 +1204,7 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -1266,10 +1266,10 @@
         <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1299,10 +1299,10 @@
         <v>7</v>
       </c>
       <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
         <v>12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>11</v>
       </c>
       <c r="W7" t="n">
         <v>29</v>
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
@@ -1388,10 +1388,10 @@
         <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" t="n">
         <v>1.17</v>
@@ -1501,91 +1501,91 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="J9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N9" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O9" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
         <v>8.75</v>
       </c>
       <c r="U9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD9" t="n">
         <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1.13</v>
@@ -1638,10 +1638,10 @@
         <v>6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N10" t="n">
         <v>2.88</v>
@@ -1656,10 +1656,10 @@
         <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1674,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1746,10 +1746,10 @@
         <v>2.37</v>
       </c>
       <c r="H11" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U11" t="n">
         <v>10.5</v>
@@ -1787,19 +1787,19 @@
         <v>9.5</v>
       </c>
       <c r="W11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB11" t="n">
         <v>16</v>
@@ -1809,16 +1809,16 @@
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
@@ -2225,28 +2225,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.47</v>
       </c>
       <c r="M16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="N16" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O16" t="n">
         <v>1.52</v>
@@ -2258,34 +2258,34 @@
         <v>2.42</v>
       </c>
       <c r="R16" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="U16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="W16" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X16" t="n">
         <v>60</v>
       </c>
       <c r="Y16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB16" t="n">
         <v>19.5</v>
@@ -2295,22 +2295,22 @@
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
         <v>8.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
         <v>17.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2506,7 +2506,7 @@
         <v>1.91</v>
       </c>
       <c r="T18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
         <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X18" t="n">
         <v>17</v>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2676,34 +2676,34 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T20" t="n">
         <v>12.5</v>
       </c>
       <c r="U20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W20" t="n">
         <v>40</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z20" t="n">
         <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB20" t="n">
         <v>12</v>
@@ -2712,22 +2712,22 @@
         <v>45</v>
       </c>
       <c r="AD20" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE20" t="n">
         <v>9.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
         <v>22</v>
@@ -2774,22 +2774,22 @@
         <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -2798,10 +2798,10 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
@@ -2819,10 +2819,10 @@
         <v>13</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
@@ -2834,7 +2834,7 @@
         <v>67</v>
       </c>
       <c r="AD21" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -2929,7 +2929,7 @@
         <v>9</v>
       </c>
       <c r="U22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V22" t="n">
         <v>11</v>
@@ -2941,37 +2941,37 @@
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3009,19 +3009,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
         <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3030,10 +3030,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3042,55 +3042,55 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U23" t="n">
         <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W23" t="n">
         <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
@@ -3131,19 +3131,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.1</v>
       </c>
-      <c r="I24" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3164,43 +3164,43 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>41</v>
       </c>
       <c r="AD24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE24" t="n">
         <v>10</v>
@@ -3209,10 +3209,10 @@
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3253,10 +3253,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -3286,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
         <v>12</v>
@@ -3328,10 +3328,10 @@
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
         <v>5</v>
@@ -3408,16 +3408,16 @@
         <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
         <v>7.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3497,13 +3497,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3518,10 +3518,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O27" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3536,19 +3536,19 @@
         <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
@@ -3557,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -3566,16 +3566,16 @@
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3634,43 +3634,43 @@
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.93</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T28" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
         <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>34</v>
@@ -3682,28 +3682,28 @@
         <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH28" t="n">
         <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -3741,13 +3741,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3762,34 +3762,34 @@
         <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>8</v>
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
@@ -3896,25 +3896,25 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
@@ -3932,16 +3932,16 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -4136,10 +4136,10 @@
         <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R33" t="n">
         <v>2.02</v>
@@ -4148,13 +4148,13 @@
         <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U33" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V33" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W33" t="n">
         <v>20</v>
@@ -4163,7 +4163,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="n">
         <v>6.1</v>
@@ -4181,22 +4181,22 @@
         <v>1250</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>65</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -4490,16 +4490,16 @@
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4606,85 +4606,85 @@
         <v>2.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P37" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="R37" t="n">
         <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T37" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U37" t="n">
+        <v>13</v>
+      </c>
+      <c r="V37" t="n">
+        <v>10</v>
+      </c>
+      <c r="W37" t="n">
+        <v>23</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF37" t="n">
         <v>15</v>
       </c>
-      <c r="V37" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W37" t="n">
-        <v>30</v>
-      </c>
-      <c r="X37" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -4719,25 +4719,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H38" t="n">
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L38" t="n">
         <v>1.17</v>
       </c>
       <c r="M38" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
         <v>1.53</v>
@@ -4746,67 +4746,67 @@
         <v>2.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T38" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U38" t="n">
         <v>9.5</v>
       </c>
       <c r="V38" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG38" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -769,25 +769,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.4</v>
@@ -796,22 +796,22 @@
         <v>2.88</v>
       </c>
       <c r="P3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T3" t="n">
         <v>13</v>
       </c>
       <c r="U3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
         <v>9</v>
@@ -832,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
         <v>29</v>
@@ -841,7 +841,7 @@
         <v>81</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>26</v>
@@ -900,10 +900,10 @@
         <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -2899,7 +2899,7 @@
         <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -2908,10 +2908,10 @@
         <v>3.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P22" t="n">
         <v>1.4</v>
@@ -3131,19 +3131,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>
@@ -3164,37 +3164,37 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
         <v>9</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
         <v>41</v>
@@ -3203,16 +3203,16 @@
         <v>151</v>
       </c>
       <c r="AE24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3640,10 +3640,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3652,10 +3652,10 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
         <v>11</v>
@@ -3679,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
         <v>13</v>
@@ -4728,10 +4728,10 @@
         <v>4.33</v>
       </c>
       <c r="J38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L38" t="n">
         <v>1.17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -856,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1091,16 +1091,16 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>2.35</v>
@@ -2384,19 +2384,19 @@
         <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V17" t="n">
         <v>10.75</v>
       </c>
       <c r="W17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y17" t="n">
         <v>35</v>
@@ -2405,7 +2405,7 @@
         <v>6.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AB17" t="n">
         <v>13.5</v>
@@ -2420,7 +2420,7 @@
         <v>7.2</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG17" t="n">
         <v>9</v>
@@ -2429,10 +2429,10 @@
         <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -3143,7 +3143,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -781,19 +781,19 @@
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P3" t="n">
         <v>1.22</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -954,7 +954,7 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1055,13 +1055,13 @@
         <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
         <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1085,22 +1085,22 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>29</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1278,10 +1278,10 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1983,55 +1983,55 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="W14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X14" t="n">
         <v>50</v>
@@ -2040,37 +2040,37 @@
         <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD14" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>7.9</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -2105,19 +2105,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="H15" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="J15" t="n">
         <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.57</v>
@@ -2141,28 +2141,28 @@
         <v>2.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="X15" t="n">
         <v>50</v>
       </c>
       <c r="Y15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AA15" t="n">
         <v>5.6</v>
@@ -2175,16 +2175,16 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>22</v>
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2384,28 +2384,28 @@
         <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="V17" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X17" t="n">
         <v>28</v>
       </c>
       <c r="Y17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB17" t="n">
         <v>13.5</v>
@@ -2417,22 +2417,22 @@
         <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2654,10 +2654,10 @@
         <v>3.05</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2668,24 +2668,24 @@
         <v>3.55</v>
       </c>
       <c r="N20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O20" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="T20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V20" t="n">
         <v>10.75</v>
@@ -2697,28 +2697,28 @@
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD20" t="n">
         <v>250</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG20" t="n">
         <v>8.75</v>
@@ -2727,10 +2727,10 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2887,13 +2887,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
         <v>1.06</v>
@@ -2926,10 +2926,10 @@
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V22" t="n">
         <v>11</v>
@@ -2941,10 +2941,10 @@
         <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
@@ -2959,13 +2959,13 @@
         <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH22" t="n">
         <v>23</v>
@@ -3009,13 +3009,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3048,16 +3048,16 @@
         <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
@@ -3081,19 +3081,19 @@
         <v>301</v>
       </c>
       <c r="AE23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG23" t="n">
         <v>9.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>3.25</v>
@@ -3146,37 +3146,37 @@
         <v>10</v>
       </c>
       <c r="L24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N24" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O24" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="P24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U24" t="n">
         <v>12</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W24" t="n">
         <v>23</v>
@@ -3185,16 +3185,16 @@
         <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>41</v>
@@ -3218,7 +3218,7 @@
         <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3253,13 +3253,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3313,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
         <v>13</v>
@@ -3331,7 +3331,7 @@
         <v>9.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
@@ -3384,10 +3384,10 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
         <v>1.25</v>
@@ -3497,13 +3497,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3557,7 +3557,7 @@
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>13</v>
@@ -3572,10 +3572,10 @@
         <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -3640,10 +3640,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3741,13 +3741,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
         <v>4.33</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3756,10 +3756,10 @@
         <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N29" t="n">
         <v>1.7</v>
@@ -3783,7 +3783,7 @@
         <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
         <v>8.5</v>
@@ -3801,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -3863,19 +3863,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -3896,10 +3896,10 @@
         <v>2.75</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>10</v>
@@ -3932,16 +3932,16 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="J35" t="n">
         <v>1.01</v>
@@ -4374,10 +4374,10 @@
         <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="O35" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P35" t="n">
         <v>1.14</v>
@@ -4395,52 +4395,52 @@
         <v>41</v>
       </c>
       <c r="U35" t="n">
+        <v>51</v>
+      </c>
+      <c r="V35" t="n">
+        <v>29</v>
+      </c>
+      <c r="W35" t="n">
         <v>101</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y35" t="n">
         <v>41</v>
       </c>
-      <c r="W35" t="n">
-        <v>800</v>
-      </c>
-      <c r="X35" t="n">
-        <v>101</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>81</v>
-      </c>
       <c r="Z35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC35" t="n">
         <v>29</v>
       </c>
-      <c r="AA35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>67</v>
       </c>
-      <c r="AD35" t="n">
-        <v>301</v>
-      </c>
       <c r="AE35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ35" t="n">
         <v>15</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -4725,7 +4725,7 @@
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -4776,10 +4776,10 @@
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
@@ -4791,7 +4791,7 @@
         <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>26</v>
@@ -4806,7 +4806,7 @@
         <v>34</v>
       </c>
       <c r="AJ38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -656,22 +656,22 @@
         <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
@@ -680,10 +680,10 @@
         <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
         <v>12</v>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="n">
         <v>101</v>
@@ -722,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -966,7 +966,7 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1055,7 +1055,7 @@
         <v>8.5</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
         <v>10</v>
@@ -1070,7 +1070,7 @@
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="O6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1177,7 +1177,7 @@
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>8.5</v>
@@ -1213,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
         <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>41</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.5</v>
@@ -1284,10 +1284,10 @@
         <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
         <v>2.1</v>
@@ -1296,7 +1296,7 @@
         <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U7" t="n">
         <v>13</v>
@@ -1305,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="W7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X7" t="n">
         <v>29</v>
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
@@ -1338,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H21" t="n">
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -2798,16 +2798,16 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>6</v>
-      </c>
-      <c r="U21" t="n">
-        <v>6.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
@@ -2822,16 +2822,16 @@
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="n">
         <v>501</v>
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
@@ -3021,7 +3021,7 @@
         <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3131,55 +3131,55 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q24" t="n">
         <v>3.25</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11</v>
+      </c>
+      <c r="U24" t="n">
+        <v>15</v>
+      </c>
+      <c r="V24" t="n">
         <v>10</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>12</v>
-      </c>
-      <c r="V24" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
         <v>19</v>
@@ -3188,37 +3188,37 @@
         <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
       </c>
       <c r="AB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG24" t="n">
         <v>11</v>
       </c>
-      <c r="AC24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -3253,13 +3253,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3286,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T25" t="n">
         <v>12</v>
@@ -3328,7 +3328,7 @@
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -3390,16 +3390,16 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3408,16 +3408,16 @@
         <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
         <v>7.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3432,10 +3432,10 @@
         <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB26" t="n">
         <v>15</v>
@@ -3453,7 +3453,7 @@
         <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -3497,13 +3497,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3530,37 +3530,37 @@
         <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
         <v>13</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3569,16 +3569,16 @@
         <v>151</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3664,16 +3664,16 @@
         <v>17</v>
       </c>
       <c r="V28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W28" t="n">
         <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
         <v>11</v>
@@ -3682,7 +3682,7 @@
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
@@ -3691,19 +3691,19 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -3750,10 +3750,10 @@
         <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -3762,10 +3762,10 @@
         <v>4.33</v>
       </c>
       <c r="N29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P29" t="n">
         <v>1.3</v>
@@ -3984,36 +3984,92 @@
           <t>River Plate</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4046,36 +4102,94 @@
           <t>San Lorenzo</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>28</v>
+      </c>
+      <c r="X32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>60</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>175</v>
+      </c>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="AE32" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4148,7 +4262,7 @@
         <v>1.7</v>
       </c>
       <c r="T33" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="U33" t="n">
         <v>9</v>
@@ -4172,7 +4286,7 @@
         <v>6.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4240,13 +4354,13 @@
         <v>1.91</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
         <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
         <v>3.25</v>
@@ -4264,10 +4378,10 @@
         <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S34" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T34" t="n">
         <v>11</v>
@@ -4353,13 +4467,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="J35" t="n">
         <v>1.01</v>
@@ -4374,10 +4488,10 @@
         <v>10</v>
       </c>
       <c r="N35" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="O35" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P35" t="n">
         <v>1.14</v>
@@ -4392,49 +4506,49 @@
         <v>1.73</v>
       </c>
       <c r="T35" t="n">
+        <v>34</v>
+      </c>
+      <c r="U35" t="n">
         <v>41</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
+        <v>19</v>
+      </c>
+      <c r="W35" t="n">
         <v>51</v>
       </c>
-      <c r="V35" t="n">
-        <v>29</v>
-      </c>
-      <c r="W35" t="n">
-        <v>101</v>
-      </c>
       <c r="X35" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
       </c>
       <c r="AA35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
         <v>15</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AG35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH35" t="n">
         <v>15</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>13</v>
       </c>
       <c r="AI35" t="n">
         <v>11</v>
@@ -4484,13 +4598,13 @@
         <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>3.5</v>
@@ -4508,10 +4622,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S36" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -650,7 +650,7 @@
         <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -662,34 +662,34 @@
         <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.53</v>
       </c>
-      <c r="O2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
+        <v>11</v>
+      </c>
+      <c r="U2" t="n">
         <v>12</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>9</v>
@@ -701,31 +701,31 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>34</v>
       </c>
       <c r="AD2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -734,7 +734,7 @@
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -781,7 +781,7 @@
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
         <v>1.13</v>
@@ -808,7 +808,7 @@
         <v>2.63</v>
       </c>
       <c r="T3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
         <v>12</v>
@@ -826,19 +826,19 @@
         <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1061,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1091,13 +1091,13 @@
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1138,10 +1138,10 @@
         <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>1.06</v>
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="O6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1183,7 +1183,7 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1260,40 +1260,40 @@
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
         <v>7.5</v>
@@ -1314,19 +1314,19 @@
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE7" t="n">
         <v>6.5</v>
@@ -1335,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1424,7 +1424,7 @@
         <v>6.5</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
@@ -1436,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
@@ -1531,7 +1531,7 @@
         <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
@@ -1543,25 +1543,25 @@
         <v>8.75</v>
       </c>
       <c r="U9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W9" t="n">
+        <v>35</v>
+      </c>
+      <c r="X9" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y9" t="n">
         <v>32</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>30</v>
       </c>
       <c r="Z9" t="n">
         <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>14</v>
@@ -1576,16 +1576,16 @@
         <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
         <v>32</v>
@@ -1983,10 +1983,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>1.62</v>
@@ -1995,25 +1995,25 @@
         <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
         <v>3.6</v>
       </c>
       <c r="N14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2025,13 +2025,13 @@
         <v>15</v>
       </c>
       <c r="U14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="W14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X14" t="n">
         <v>50</v>
@@ -2040,7 +2040,7 @@
         <v>45</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA14" t="n">
         <v>7.3</v>
@@ -2055,10 +2055,10 @@
         <v>450</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG14" t="n">
         <v>7.9</v>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="H15" t="n">
         <v>2.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J15" t="n">
         <v>1.14</v>
@@ -2135,7 +2135,7 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
         <v>2.18</v>
@@ -2144,16 +2144,16 @@
         <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="V15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X15" t="n">
         <v>50</v>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2225,49 +2225,49 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.47</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T16" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="U16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V16" t="n">
         <v>16.5</v>
@@ -2279,38 +2279,38 @@
         <v>60</v>
       </c>
       <c r="Y16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AA16" t="n">
         <v>6.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AF16" t="n">
         <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2685,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V20" t="n">
         <v>10.75</v>
@@ -2697,7 +2697,7 @@
         <v>23</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -2715,10 +2715,10 @@
         <v>250</v>
       </c>
       <c r="AE20" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>8.75</v>
@@ -2730,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.33</v>
@@ -2786,16 +2786,16 @@
         <v>3.25</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R21" t="n">
         <v>2.2</v>
@@ -2807,7 +2807,7 @@
         <v>5.5</v>
       </c>
       <c r="U21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
@@ -2816,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
         <v>34</v>
@@ -2825,7 +2825,7 @@
         <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
         <v>21</v>
@@ -2837,7 +2837,7 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -2887,19 +2887,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -2926,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
@@ -2935,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="W22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X22" t="n">
         <v>23</v>
@@ -2959,7 +2959,7 @@
         <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
         <v>12</v>
@@ -3009,19 +3009,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3131,19 +3131,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H24" t="n">
         <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L24" t="n">
         <v>1.2</v>
@@ -3152,10 +3152,10 @@
         <v>4.33</v>
       </c>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O24" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P24" t="n">
         <v>1.33</v>
@@ -3164,31 +3164,31 @@
         <v>3.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U24" t="n">
         <v>15</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
         <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3259,7 +3259,7 @@
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
@@ -3503,7 +3503,7 @@
         <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3518,10 +3518,10 @@
         <v>4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O27" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="I28" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3652,22 +3652,22 @@
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T28" t="n">
         <v>11</v>
       </c>
       <c r="U28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V28" t="n">
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X28" t="n">
         <v>23</v>
@@ -3676,13 +3676,13 @@
         <v>29</v>
       </c>
       <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB28" t="n">
         <v>11</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
       </c>
       <c r="AC28" t="n">
         <v>41</v>
@@ -3691,13 +3691,13 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>23</v>
@@ -3741,7 +3741,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
         <v>4.33</v>
@@ -3750,10 +3750,10 @@
         <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
         <v>1.2</v>
@@ -3774,10 +3774,10 @@
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
@@ -3813,13 +3813,13 @@
         <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>67</v>
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I30" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
@@ -3878,43 +3878,43 @@
         <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
@@ -3923,7 +3923,7 @@
         <v>9.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB30" t="n">
         <v>17</v>
@@ -3932,22 +3932,22 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
@@ -3985,90 +3985,90 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M31" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="N31" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R31" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T31" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="U31" t="n">
         <v>8.25</v>
       </c>
       <c r="V31" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W31" t="n">
+        <v>15</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB31" t="n">
         <v>16.5</v>
       </c>
-      <c r="X31" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>17</v>
-      </c>
       <c r="AC31" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD31" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE31" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF31" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -4354,13 +4354,13 @@
         <v>1.91</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K34" t="n">
         <v>8.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
         <v>3.25</v>
@@ -4378,10 +4378,10 @@
         <v>2.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T34" t="n">
         <v>11</v>
@@ -4598,13 +4598,13 @@
         <v>3.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
         <v>3.5</v>
@@ -4622,10 +4622,10 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S36" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
@@ -4726,16 +4726,16 @@
         <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4839,7 +4839,7 @@
         <v>4.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -4890,10 +4890,10 @@
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
@@ -4954,36 +4954,96 @@
           <t>Al Bataeh</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W39" t="n">
+        <v>14</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5016,36 +5076,96 @@
           <t>Al Wasl</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T40" t="n">
+        <v>27</v>
+      </c>
+      <c r="U40" t="n">
+        <v>65</v>
+      </c>
+      <c r="V40" t="n">
+        <v>27</v>
+      </c>
+      <c r="W40" t="n">
+        <v>250</v>
+      </c>
+      <c r="X40" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5078,36 +5198,96 @@
           <t>Ittihad Kalba</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T41" t="n">
+        <v>11</v>
+      </c>
+      <c r="U41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>10</v>
+      </c>
+      <c r="W41" t="n">
+        <v>35</v>
+      </c>
+      <c r="X41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,36 +5320,96 @@
           <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>21</v>
+      </c>
+      <c r="V42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>45</v>
+      </c>
+      <c r="X42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P3" t="n">
         <v>1.22</v>
@@ -814,16 +814,16 @@
         <v>12</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -841,10 +841,10 @@
         <v>101</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -966,7 +966,7 @@
         <v>7.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
         <v>8.5</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1052,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
         <v>12</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
         <v>23</v>
@@ -1076,7 +1076,7 @@
         <v>6.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1088,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1156,10 +1156,10 @@
         <v>3.4</v>
       </c>
       <c r="N6" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>7</v>
@@ -1204,13 +1204,13 @@
         <v>51</v>
       </c>
       <c r="AD6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1284,10 +1284,10 @@
         <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
         <v>2</v>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>6.5</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N9" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
@@ -1540,16 +1540,16 @@
         <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U9" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="V9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X9" t="n">
         <v>25</v>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA9" t="n">
         <v>6.5</v>
@@ -1576,19 +1576,19 @@
         <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>30</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1983,37 +1983,37 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>1.05</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2022,28 +2022,28 @@
         <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X14" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="n">
         <v>50</v>
       </c>
-      <c r="Y14" t="n">
-        <v>45</v>
-      </c>
       <c r="Z14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
@@ -2055,19 +2055,19 @@
         <v>450</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AG14" t="n">
         <v>7.9</v>
       </c>
       <c r="AH14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I15" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
         <v>1.14</v>
@@ -2144,16 +2144,16 @@
         <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V15" t="n">
         <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="X15" t="n">
         <v>50</v>
@@ -2175,10 +2175,10 @@
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>9.25</v>
@@ -2512,13 +2512,13 @@
         <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
         <v>29</v>
@@ -2539,7 +2539,7 @@
         <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2588,36 +2588,92 @@
           <t>Lahti</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>24</v>
+      </c>
+      <c r="X19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2651,13 +2707,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2668,33 +2724,33 @@
         <v>3.55</v>
       </c>
       <c r="N20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O20" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="V20" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="W20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y20" t="n">
         <v>24</v>
@@ -2703,34 +2759,34 @@
         <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2777,19 +2833,19 @@
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -3009,19 +3065,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3030,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3048,10 +3104,10 @@
         <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V23" t="n">
         <v>13</v>
@@ -3060,16 +3116,16 @@
         <v>41</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3084,19 +3140,19 @@
         <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -3253,31 +3309,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P25" t="n">
         <v>1.36</v>
@@ -3375,7 +3431,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
@@ -3390,16 +3446,16 @@
         <v>13</v>
       </c>
       <c r="L26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3408,16 +3464,16 @@
         <v>3.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
         <v>7.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
         <v>8.5</v>
@@ -3444,7 +3500,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -3453,7 +3509,7 @@
         <v>26</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -3500,10 +3556,10 @@
         <v>3.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3512,16 +3568,16 @@
         <v>13</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N27" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O27" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P27" t="n">
         <v>1.33</v>
@@ -3530,13 +3586,13 @@
         <v>3.25</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U27" t="n">
         <v>21</v>
@@ -3554,10 +3610,10 @@
         <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -3566,13 +3622,13 @@
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
@@ -3619,13 +3675,13 @@
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.85</v>
-      </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3640,10 +3696,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3658,28 +3714,28 @@
         <v>2.2</v>
       </c>
       <c r="T28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
         <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
         <v>11</v>
@@ -3691,22 +3747,22 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3741,7 +3797,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
         <v>4.33</v>
@@ -3863,19 +3919,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -3884,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -3896,10 +3952,10 @@
         <v>2.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>9</v>
@@ -3908,19 +3964,19 @@
         <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6.5</v>
@@ -3932,25 +3988,25 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -3991,15 +4047,15 @@
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M31" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N31" t="n">
         <v>2</v>
@@ -4020,10 +4076,10 @@
         <v>1.75</v>
       </c>
       <c r="T31" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V31" t="n">
         <v>8.25</v>
@@ -4032,43 +4088,43 @@
         <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y31" t="n">
         <v>30</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA31" t="n">
         <v>6.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="n">
         <v>800</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF31" t="n">
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>75</v>
       </c>
       <c r="AI31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>50</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -4726,16 +4782,16 @@
         <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4958,43 +5014,43 @@
         <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L39" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.62</v>
       </c>
-      <c r="O39" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S39" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T39" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U39" t="n">
         <v>9.25</v>
@@ -5003,31 +5059,31 @@
         <v>8.25</v>
       </c>
       <c r="W39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AB39" t="n">
         <v>14</v>
       </c>
       <c r="AC39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD39" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE39" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF39" t="n">
         <v>26</v>
@@ -5039,10 +5095,10 @@
         <v>65</v>
       </c>
       <c r="AI39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -5199,46 +5255,46 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M41" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O41" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="P41" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S41" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T41" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="U41" t="n">
         <v>16.5</v>
@@ -5250,43 +5306,43 @@
         <v>35</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD41" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG41" t="n">
         <v>9</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI41" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -659,7 +659,7 @@
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.18</v>
@@ -668,10 +668,10 @@
         <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P2" t="n">
         <v>1.29</v>
@@ -1150,16 +1150,16 @@
         <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1382,10 +1382,10 @@
         <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1412,10 +1412,10 @@
         <v>3.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
         <v>8</v>
@@ -1439,10 +1439,10 @@
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>67</v>
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
         <v>1.06</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.3</v>
@@ -1528,40 +1528,40 @@
         <v>1.83</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
         <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB9" t="n">
         <v>14</v>
@@ -1573,19 +1573,19 @@
         <v>500</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>9.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>30</v>
@@ -2108,7 +2108,7 @@
         <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
         <v>2.15</v>
@@ -2117,7 +2117,7 @@
         <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>1.57</v>
@@ -2135,22 +2135,22 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.2</v>
       </c>
-      <c r="R15" t="n">
-        <v>2.18</v>
-      </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U15" t="n">
         <v>19</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="W15" t="n">
         <v>65</v>
@@ -2162,26 +2162,26 @@
         <v>70</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB15" t="n">
         <v>19</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2482,16 +2482,16 @@
         <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="n">
         <v>1.4</v>
@@ -2713,7 +2713,7 @@
         <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2735,13 +2735,13 @@
         <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T20" t="n">
         <v>12.5</v>
       </c>
       <c r="U20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="V20" t="n">
         <v>10.25</v>
@@ -2750,13 +2750,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
         <v>7.1</v>
@@ -2771,16 +2771,16 @@
         <v>200</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>16</v>
@@ -2830,10 +2830,10 @@
         <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2842,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
         <v>1.44</v>
@@ -2863,10 +2863,10 @@
         <v>5.5</v>
       </c>
       <c r="U21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>10</v>
@@ -2878,7 +2878,7 @@
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
@@ -2893,7 +2893,7 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -2988,13 +2988,13 @@
         <v>15</v>
       </c>
       <c r="V22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W22" t="n">
         <v>34</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y22" t="n">
         <v>34</v>
@@ -3027,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -3208,10 +3208,10 @@
         <v>4.33</v>
       </c>
       <c r="N24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P24" t="n">
         <v>1.33</v>
@@ -3309,19 +3309,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>1.29</v>
@@ -3342,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
         <v>12</v>
@@ -3354,16 +3354,16 @@
         <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>41</v>
       </c>
       <c r="X25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
         <v>10</v>
@@ -3381,10 +3381,10 @@
         <v>201</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
@@ -3553,19 +3553,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3580,10 +3580,10 @@
         <v>1.98</v>
       </c>
       <c r="P27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
         <v>1.75</v>
@@ -3619,7 +3619,7 @@
         <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD27" t="n">
         <v>201</v>
@@ -3628,13 +3628,13 @@
         <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>15</v>
@@ -3690,16 +3690,16 @@
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3797,13 +3797,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3878,10 +3878,10 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -3919,19 +3919,19 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.4</v>
-      </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -3940,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -3964,13 +3964,13 @@
         <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W30" t="n">
         <v>41</v>
       </c>
       <c r="X30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
@@ -3988,7 +3988,7 @@
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE30" t="n">
         <v>6.5</v>
@@ -4000,13 +4000,13 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -4306,10 +4306,10 @@
         <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>2.02</v>
@@ -4342,7 +4342,7 @@
         <v>6.4</v>
       </c>
       <c r="AB33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4666,10 +4666,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4812,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W37" t="n">
         <v>23</v>
@@ -4889,13 +4889,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>1.03</v>
@@ -4910,16 +4910,16 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O38" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R38" t="n">
         <v>1.62</v>
@@ -4946,10 +4946,10 @@
         <v>21</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
@@ -4961,22 +4961,22 @@
         <v>151</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -5023,82 +5023,82 @@
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M39" t="n">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="N39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.57</v>
       </c>
-      <c r="O39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S39" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="T39" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U39" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V39" t="n">
         <v>8.25</v>
       </c>
       <c r="W39" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X39" t="n">
         <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA39" t="n">
         <v>8.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE39" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
         <v>65</v>
       </c>
       <c r="AI39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -5133,46 +5133,46 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="H40" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="I40" t="n">
         <v>1.27</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="M40" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="N40" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O40" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="P40" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="R40" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T40" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U40" t="n">
         <v>65</v>
@@ -5184,16 +5184,16 @@
         <v>250</v>
       </c>
       <c r="X40" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA40" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB40" t="n">
         <v>21</v>
@@ -5202,25 +5202,25 @@
         <v>80</v>
       </c>
       <c r="AD40" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE40" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG40" t="n">
         <v>9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>8.75</v>
       </c>
       <c r="AH40" t="n">
         <v>8.25</v>
       </c>
       <c r="AI40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -5255,43 +5255,43 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I41" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J41" t="n">
         <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O41" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="P41" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S41" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="T41" t="n">
         <v>11.25</v>
@@ -5312,37 +5312,37 @@
         <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AC41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE41" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AF41" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG41" t="n">
         <v>9</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1046,10 +1046,10 @@
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -1064,13 +1064,13 @@
         <v>23</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>6.5</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="O6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1296,10 +1296,10 @@
         <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V7" t="n">
         <v>12</v>
@@ -1332,16 +1332,16 @@
         <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1858,36 +1858,90 @@
           <t>Gualaceo</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>32</v>
+      </c>
+      <c r="X12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>110</v>
+      </c>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="AE12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2589,13 +2643,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -2618,34 +2672,34 @@
         <v>2.47</v>
       </c>
       <c r="R19" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U19" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W19" t="n">
         <v>24</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="n">
         <v>7.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB19" t="n">
         <v>14.5</v>
@@ -2660,19 +2714,19 @@
         <v>8.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2707,13 +2761,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2735,34 +2789,34 @@
         <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="T20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V20" t="n">
         <v>10.25</v>
       </c>
       <c r="W20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X20" t="n">
         <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
         <v>14.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
         <v>37</v>
@@ -2771,16 +2825,16 @@
         <v>200</v>
       </c>
       <c r="AE20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>16</v>
@@ -2821,19 +2875,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2878,7 +2932,7 @@
         <v>34</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>7.5</v>
@@ -2908,7 +2962,7 @@
         <v>51</v>
       </c>
       <c r="AJ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
@@ -2952,10 +3006,10 @@
         <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.3</v>
@@ -3065,19 +3119,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3086,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3104,10 +3158,10 @@
         <v>1.91</v>
       </c>
       <c r="T23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
         <v>13</v>
@@ -3116,7 +3170,7 @@
         <v>41</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
         <v>41</v>
@@ -3125,7 +3179,7 @@
         <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
         <v>15</v>
@@ -3140,19 +3194,19 @@
         <v>7</v>
       </c>
       <c r="AF23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG23" t="n">
         <v>9.5</v>
       </c>
-      <c r="AG23" t="n">
-        <v>9</v>
-      </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3187,13 +3241,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
         <v>1.04</v>
@@ -3214,10 +3268,10 @@
         <v>2.1</v>
       </c>
       <c r="P24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R24" t="n">
         <v>1.53</v>
@@ -3235,13 +3289,13 @@
         <v>11</v>
       </c>
       <c r="W24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -3256,7 +3310,7 @@
         <v>34</v>
       </c>
       <c r="AD24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
@@ -3309,19 +3363,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.29</v>
@@ -3354,13 +3408,13 @@
         <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>41</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3381,7 +3435,7 @@
         <v>201</v>
       </c>
       <c r="AE25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>9.5</v>
@@ -3434,22 +3488,22 @@
         <v>1.65</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N26" t="n">
         <v>1.8</v>
@@ -3500,7 +3554,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -3553,19 +3607,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3586,25 +3640,25 @@
         <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T27" t="n">
+        <v>11</v>
+      </c>
+      <c r="U27" t="n">
+        <v>19</v>
+      </c>
+      <c r="V27" t="n">
         <v>12</v>
-      </c>
-      <c r="U27" t="n">
-        <v>21</v>
-      </c>
-      <c r="V27" t="n">
-        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>34</v>
@@ -3619,7 +3673,7 @@
         <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="n">
         <v>201</v>
@@ -3628,7 +3682,7 @@
         <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG27" t="n">
         <v>8.5</v>
@@ -3675,13 +3729,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
         <v>1.05</v>
@@ -3690,16 +3744,16 @@
         <v>11</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -3714,10 +3768,10 @@
         <v>2.2</v>
       </c>
       <c r="T28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
@@ -3726,13 +3780,13 @@
         <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3747,7 +3801,7 @@
         <v>151</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF28" t="n">
         <v>12</v>
@@ -3756,13 +3810,13 @@
         <v>9.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3797,37 +3851,37 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
         <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O29" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
         <v>1.8</v>
@@ -3836,7 +3890,7 @@
         <v>1.95</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>7.5</v>
@@ -3845,19 +3899,19 @@
         <v>8.5</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>23</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -3869,10 +3923,10 @@
         <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
@@ -3919,19 +3973,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -3958,22 +4012,22 @@
         <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="V30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="X30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z30" t="n">
         <v>8.5</v>
@@ -3991,22 +4045,22 @@
         <v>351</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4401,19 +4455,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -4440,13 +4494,13 @@
         <v>1.8</v>
       </c>
       <c r="T34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W34" t="n">
         <v>41</v>
@@ -4482,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI34" t="n">
         <v>17</v>
@@ -4767,13 +4821,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
@@ -4818,7 +4872,7 @@
         <v>23</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y37" t="n">
         <v>23</v>
@@ -5011,13 +5065,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
         <v>1.03</v>
@@ -5026,43 +5080,43 @@
         <v>9.25</v>
       </c>
       <c r="L39" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M39" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="N39" t="n">
         <v>1.52</v>
       </c>
       <c r="O39" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P39" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="T39" t="n">
         <v>9.75</v>
       </c>
       <c r="U39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V39" t="n">
         <v>8.25</v>
       </c>
       <c r="W39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
         <v>19</v>
@@ -5071,10 +5125,10 @@
         <v>9.25</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC39" t="n">
         <v>45</v>
@@ -5083,22 +5137,22 @@
         <v>250</v>
       </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
@@ -5133,13 +5187,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="H40" t="n">
         <v>5.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J40" t="n">
         <v>1.02</v>
@@ -5157,37 +5211,37 @@
         <v>1.42</v>
       </c>
       <c r="O40" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="P40" t="n">
         <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="R40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S40" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T40" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U40" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W40" t="n">
         <v>250</v>
       </c>
       <c r="X40" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Y40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="n">
         <v>10</v>
@@ -5205,10 +5259,10 @@
         <v>500</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AG40" t="n">
         <v>9</v>
@@ -5220,7 +5274,7 @@
         <v>10</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -5267,25 +5321,25 @@
         <v>1.04</v>
       </c>
       <c r="K41" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L41" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M41" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="N41" t="n">
         <v>1.6</v>
       </c>
       <c r="O41" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="P41" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R41" t="n">
         <v>1.5</v>
@@ -5294,7 +5348,7 @@
         <v>2.42</v>
       </c>
       <c r="T41" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="U41" t="n">
         <v>16.5</v>
@@ -5309,16 +5363,16 @@
         <v>21</v>
       </c>
       <c r="Y41" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC41" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>1.06</v>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
         <v>9.5</v>
@@ -1085,7 +1085,7 @@
         <v>251</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1873,10 +1873,10 @@
         <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -1885,19 +1885,19 @@
         <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S12" t="n">
         <v>1.65</v>
       </c>
       <c r="T12" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V12" t="n">
         <v>10.5</v>
@@ -1915,13 +1915,13 @@
         <v>6.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
@@ -1931,7 +1931,7 @@
         <v>12.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH12" t="n">
         <v>35</v>
@@ -1940,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
@@ -1974,36 +1974,90 @@
           <t>22 de Julio</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>24</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>110</v>
+      </c>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="AE13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3140,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3256,10 +3310,10 @@
         <v>13</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N24" t="n">
         <v>1.7</v>
@@ -3363,19 +3417,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>1.29</v>
@@ -3405,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
         <v>13</v>
@@ -3417,7 +3471,7 @@
         <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>10</v>
@@ -3438,16 +3492,16 @@
         <v>8</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>9</v>
       </c>
       <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
         <v>17</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
@@ -3485,7 +3539,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
         <v>3.9</v>
@@ -3533,7 +3587,7 @@
         <v>8.5</v>
       </c>
       <c r="W26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X26" t="n">
         <v>13</v>
@@ -3554,13 +3608,13 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -3607,19 +3661,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3649,19 +3703,19 @@
         <v>11</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
         <v>12</v>
       </c>
       <c r="W27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X27" t="n">
         <v>26</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z27" t="n">
         <v>12</v>
@@ -3670,7 +3724,7 @@
         <v>7</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
@@ -3679,19 +3733,19 @@
         <v>201</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
         <v>17</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>23</v>
@@ -3872,10 +3926,10 @@
         <v>4.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P29" t="n">
         <v>1.29</v>
@@ -3994,10 +4048,10 @@
         <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -4101,7 +4155,7 @@
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -4157,7 +4211,7 @@
         <v>16</v>
       </c>
       <c r="AC31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD31" t="n">
         <v>800</v>
@@ -4169,7 +4223,7 @@
         <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
         <v>75</v>
@@ -4339,7 +4393,7 @@
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J33" t="n">
         <v>1.1</v>
@@ -4360,10 +4414,10 @@
         <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R33" t="n">
         <v>2.02</v>
@@ -4455,13 +4509,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4518,19 +4572,19 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
         <v>9</v>
@@ -5431,31 +5485,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I42" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L42" t="n">
         <v>1.2</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="N42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P42" t="n">
         <v>1.31</v>
@@ -5470,10 +5524,10 @@
         <v>2.3</v>
       </c>
       <c r="T42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="U42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V42" t="n">
         <v>11.5</v>
@@ -5485,16 +5539,16 @@
         <v>26</v>
       </c>
       <c r="Y42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
         <v>45</v>
@@ -5503,10 +5557,10 @@
         <v>250</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
         <v>8.5</v>
@@ -5515,10 +5569,10 @@
         <v>18</v>
       </c>
       <c r="AI42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" t="n">
         <v>1.14</v>
@@ -796,22 +796,22 @@
         <v>2.6</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>19</v>
@@ -844,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -900,10 +900,10 @@
         <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.57</v>
@@ -1656,10 +1656,10 @@
         <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
         <v>5</v>
@@ -1674,7 +1674,7 @@
         <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1859,85 +1859,85 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.8</v>
+        <v>2.37</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="N12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>1.65</v>
       </c>
       <c r="T12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>40</v>
+      </c>
+      <c r="X12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z12" t="n">
         <v>6.7</v>
       </c>
-      <c r="U12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>32</v>
-      </c>
-      <c r="X12" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AA12" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AF12" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>45</v>
@@ -1998,10 +1998,10 @@
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
         <v>1.98</v>
@@ -2056,7 +2056,7 @@
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -2213,19 +2213,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J15" t="n">
         <v>1.14</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L15" t="n">
         <v>1.57</v>
@@ -2243,19 +2243,19 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V15" t="n">
         <v>14</v>
@@ -2264,26 +2264,26 @@
         <v>65</v>
       </c>
       <c r="X15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF15" t="n">
         <v>8.75</v>
@@ -2295,7 +2295,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
         <v>45</v>
@@ -2336,10 +2336,10 @@
         <v>5.1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J16" t="n">
         <v>1.1</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="V16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="W16" t="n">
         <v>100</v>
@@ -2396,7 +2396,7 @@
         <v>6.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
         <v>110</v>
@@ -2406,16 +2406,16 @@
         <v>5.3</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG16" t="n">
         <v>8.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>37</v>
@@ -2456,22 +2456,22 @@
         <v>2.92</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I17" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2480,10 +2480,10 @@
         <v>1.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
         <v>1.78</v>
@@ -2492,25 +2492,25 @@
         <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U17" t="n">
         <v>14.5</v>
       </c>
       <c r="V17" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W17" t="n">
         <v>37</v>
       </c>
       <c r="X17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA17" t="n">
         <v>5.7</v>
@@ -2522,25 +2522,25 @@
         <v>65</v>
       </c>
       <c r="AD17" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>9.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2608,28 +2608,28 @@
         <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
         <v>10</v>
@@ -2638,16 +2638,16 @@
         <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
@@ -2656,13 +2656,13 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3221,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="W23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
@@ -3230,7 +3230,7 @@
         <v>41</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
         <v>5.5</v>
@@ -3248,7 +3248,7 @@
         <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>9.5</v>
@@ -3257,7 +3257,7 @@
         <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>34</v>
@@ -3551,7 +3551,7 @@
         <v>1.04</v>
       </c>
       <c r="K26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" t="n">
         <v>1.22</v>
@@ -3560,10 +3560,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3673,7 +3673,7 @@
         <v>1.04</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" t="n">
         <v>1.25</v>
@@ -3804,10 +3804,10 @@
         <v>3.75</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P28" t="n">
         <v>1.36</v>
@@ -4387,40 +4387,40 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R33" t="n">
         <v>2.05</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.02</v>
       </c>
       <c r="S33" t="n">
         <v>1.7</v>
@@ -4429,28 +4429,28 @@
         <v>5.7</v>
       </c>
       <c r="U33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W33" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="X33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
         <v>21</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4459,22 +4459,22 @@
         <v>1250</v>
       </c>
       <c r="AE33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH33" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -4509,19 +4509,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.33</v>
@@ -4572,19 +4572,19 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG34" t="n">
         <v>9</v>
@@ -5363,37 +5363,37 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K41" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M41" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="N41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O41" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="P41" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R41" t="n">
         <v>1.5</v>
@@ -5402,31 +5402,31 @@
         <v>2.42</v>
       </c>
       <c r="T41" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="U41" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W41" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z41" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB41" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC41" t="n">
         <v>37</v>
@@ -5435,22 +5435,22 @@
         <v>200</v>
       </c>
       <c r="AE41" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="42">
@@ -5485,19 +5485,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.2</v>
@@ -5509,49 +5509,49 @@
         <v>1.6</v>
       </c>
       <c r="O42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="P42" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T42" t="n">
         <v>13</v>
       </c>
       <c r="U42" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="V42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W42" t="n">
         <v>45</v>
       </c>
       <c r="X42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y42" t="n">
         <v>26</v>
       </c>
-      <c r="Y42" t="n">
-        <v>28</v>
-      </c>
       <c r="Z42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="n">
         <v>250</v>
@@ -5560,16 +5560,16 @@
         <v>9.75</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AG42" t="n">
         <v>8.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ42" t="n">
         <v>20</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-13.xlsx
@@ -772,10 +772,10 @@
         <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.02</v>
@@ -900,10 +900,10 @@
         <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -1156,10 +1156,10 @@
         <v>3.5</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="P6" t="n">
         <v>1.4</v>
@@ -1266,10 +1266,10 @@
         <v>2.35</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1326,7 +1326,7 @@
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE7" t="n">
         <v>6.5</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P8" t="n">
         <v>1.25</v>
@@ -1862,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1876,10 +1876,10 @@
         <v>2.32</v>
       </c>
       <c r="N12" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
         <v>1.52</v>
@@ -1888,22 +1888,22 @@
         <v>2.22</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V12" t="n">
         <v>11.5</v>
       </c>
       <c r="W12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X12" t="n">
         <v>32</v>
@@ -1912,7 +1912,7 @@
         <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA12" t="n">
         <v>5.9</v>
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
       <c r="AC12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
         <v>24</v>
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.36</v>
@@ -2989,10 +2989,10 @@
         <v>8.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>81</v>
@@ -3001,7 +3001,7 @@
         <v>501</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>34</v>
@@ -3016,7 +3016,7 @@
         <v>51</v>
       </c>
       <c r="AJ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -3194,10 +3194,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3417,19 +3417,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J25" t="n">
         <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.29</v>
@@ -3438,16 +3438,16 @@
         <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O25" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
         <v>1.75</v>
@@ -3456,7 +3456,7 @@
         <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U25" t="n">
         <v>19</v>
@@ -3474,7 +3474,7 @@
         <v>34</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
@@ -3539,13 +3539,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.04</v>
@@ -3560,10 +3560,10 @@
         <v>4</v>
       </c>
       <c r="N26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P26" t="n">
         <v>1.33</v>
@@ -3596,7 +3596,7 @@
         <v>23</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
         <v>7.5</v>
@@ -3608,7 +3608,7 @@
         <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -3661,13 +3661,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J27" t="n">
         <v>1.04</v>
@@ -3706,13 +3706,13 @@
         <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
         <v>34</v>
       </c>
       <c r="X27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>29</v>
@@ -3742,13 +3742,13 @@
         <v>9</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -3905,19 +3905,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H29" t="n">
         <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
         <v>1.18</v>
@@ -3968,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
@@ -4149,63 +4149,63 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.82</v>
+        <v>2.67</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
         <v>1.75</v>
       </c>
       <c r="T31" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="U31" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="V31" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X31" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AB31" t="n">
         <v>16</v>
@@ -4217,22 +4217,22 @@
         <v>800</v>
       </c>
       <c r="AE31" t="n">
-        <v>10.75</v>
+        <v>7.1</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AJ31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -4267,92 +4267,92 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I32" t="n">
-        <v>2.87</v>
+        <v>1.95</v>
       </c>
       <c r="J32" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="K32" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="L32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P32" t="n">
         <v>1.6</v>
       </c>
-      <c r="M32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R32" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T32" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="U32" t="n">
-        <v>10.25</v>
+        <v>19</v>
       </c>
       <c r="V32" t="n">
-        <v>11.25</v>
+        <v>15.5</v>
       </c>
       <c r="W32" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="X32" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Y32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AA32" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC32" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>35</v>
+        <v>16.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I33" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.09</v>
@@ -4420,25 +4420,25 @@
         <v>2.45</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S33" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T33" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="U33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V33" t="n">
         <v>9.25</v>
       </c>
       <c r="W33" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y33" t="n">
         <v>40</v>
@@ -4453,28 +4453,28 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD33" t="n">
         <v>1250</v>
       </c>
       <c r="AE33" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4521,13 +4521,13 @@
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>2.1</v>
@@ -4572,19 +4572,19 @@
         <v>6.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
         <v>51</v>
       </c>
       <c r="AD34" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE34" t="n">
         <v>6.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
         <v>9</v>
@@ -5363,13 +5363,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H41" t="n">
         <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -5381,13 +5381,13 @@
         <v>1.18</v>
       </c>
       <c r="M41" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="N41" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O41" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="P41" t="n">
         <v>1.3</v>
@@ -5396,10 +5396,10 @@
         <v>3.2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S41" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T41" t="n">
         <v>13</v>
@@ -5408,13 +5408,13 @@
         <v>18.5</v>
       </c>
       <c r="V41" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
         <v>24</v>
@@ -5429,28 +5429,28 @@
         <v>11.25</v>
       </c>
       <c r="AC41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD41" t="n">
         <v>200</v>
       </c>
       <c r="AE41" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG41" t="n">
         <v>8.75</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ41" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="42">
@@ -5485,91 +5485,91 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L42" t="n">
         <v>1.2</v>
       </c>
       <c r="M42" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="N42" t="n">
         <v>1.6</v>
       </c>
       <c r="O42" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S42" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U42" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="V42" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="W42" t="n">
         <v>45</v>
       </c>
       <c r="X42" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y42" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="n">
         <v>250</v>
       </c>
       <c r="AE42" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AG42" t="n">
         <v>8.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ42" t="n">
         <v>20</v>
